--- a/results/mp/logistic/corona/confidence/210/stop-words-desired-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-desired-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,30 +40,39 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>drop</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -73,55 +82,64 @@
     <t>co</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>free</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>better</t>
@@ -130,46 +148,40 @@
     <t>save</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
   <si>
     <t>corona</t>
@@ -538,10 +550,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -599,13 +611,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8253424657534246</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -617,19 +629,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -641,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -649,7 +661,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8378378378378378</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C4">
         <v>31</v>
@@ -667,19 +679,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>0.9302325581395349</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -691,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -699,13 +711,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8321917808219178</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C5">
-        <v>243</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>243</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -717,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0.925</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -741,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -749,13 +761,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7631578947368421</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -770,16 +782,16 @@
         <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -799,13 +811,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.582010582010582</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C7">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>0.9152542372881356</v>
+        <v>0.9057591623036649</v>
       </c>
       <c r="L7">
-        <v>54</v>
+        <v>346</v>
       </c>
       <c r="M7">
-        <v>54</v>
+        <v>347</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,10 +850,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -849,13 +861,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5077519379844961</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C8">
-        <v>262</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>262</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -867,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>254</v>
+        <v>24</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.9090909090909091</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -891,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -899,13 +911,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3866666666666667</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -917,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.9007832898172323</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L9">
-        <v>345</v>
+        <v>99</v>
       </c>
       <c r="M9">
-        <v>345</v>
+        <v>99</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -941,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -949,13 +961,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3557046979865772</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C10">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -967,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.8936170212765957</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="L10">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M10">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -999,13 +1011,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1150793650793651</v>
+        <v>0.5465116279069767</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>282</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>282</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1017,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.890625</v>
+        <v>0.8802816901408451</v>
       </c>
       <c r="L11">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="M11">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1041,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1049,13 +1061,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.08042895442359249</v>
+        <v>0.4228187919463087</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1067,19 +1079,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>343</v>
+        <v>86</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.8867924528301887</v>
+        <v>0.875</v>
       </c>
       <c r="L12">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="M12">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1091,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1099,479 +1111,575 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01230569948186529</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C13">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>46</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13">
+        <v>0.8625</v>
+      </c>
+      <c r="L13">
+        <v>138</v>
+      </c>
+      <c r="M13">
+        <v>138</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="C14">
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <v>42</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>210</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14">
+        <v>0.8620689655172413</v>
+      </c>
+      <c r="L14">
+        <v>50</v>
+      </c>
+      <c r="M14">
+        <v>50</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.09651474530831099</v>
+      </c>
+      <c r="C15">
+        <v>36</v>
+      </c>
+      <c r="D15">
+        <v>36</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>337</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15">
+        <v>0.8536585365853658</v>
+      </c>
+      <c r="L15">
+        <v>70</v>
+      </c>
+      <c r="M15">
+        <v>70</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.01747572815533981</v>
+      </c>
+      <c r="C16">
+        <v>54</v>
+      </c>
+      <c r="D16">
+        <v>71</v>
+      </c>
+      <c r="E16">
+        <v>0.24</v>
+      </c>
+      <c r="F16">
+        <v>0.76</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>3036</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L16">
+        <v>30</v>
+      </c>
+      <c r="M16">
+        <v>30</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.01319509896324222</v>
+      </c>
+      <c r="C17">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>49</v>
+      </c>
+      <c r="E17">
+        <v>0.43</v>
+      </c>
+      <c r="F17">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>2094</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D13">
-        <v>57</v>
-      </c>
-      <c r="E13">
-        <v>0.33</v>
-      </c>
-      <c r="F13">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>3050</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="K17">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L17">
         <v>30</v>
       </c>
-      <c r="K13">
-        <v>0.8839285714285714</v>
-      </c>
-      <c r="L13">
-        <v>99</v>
-      </c>
-      <c r="M13">
-        <v>99</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
+      <c r="M17">
+        <v>30</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>0.8297872340425532</v>
+      </c>
+      <c r="L18">
+        <v>39</v>
+      </c>
+      <c r="M18">
+        <v>39</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19">
+        <v>0.82</v>
+      </c>
+      <c r="L19">
+        <v>41</v>
+      </c>
+      <c r="M19">
+        <v>41</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20">
+        <v>0.8125</v>
+      </c>
+      <c r="L20">
+        <v>39</v>
+      </c>
+      <c r="M20">
+        <v>39</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21">
+        <v>0.7936507936507936</v>
+      </c>
+      <c r="L21">
+        <v>50</v>
+      </c>
+      <c r="M21">
+        <v>50</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="J14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14">
-        <v>0.8661971830985915</v>
-      </c>
-      <c r="L14">
-        <v>123</v>
-      </c>
-      <c r="M14">
-        <v>123</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="J15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15">
-        <v>0.8620689655172413</v>
-      </c>
-      <c r="L15">
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22">
+        <v>0.7714285714285715</v>
+      </c>
+      <c r="L22">
+        <v>27</v>
+      </c>
+      <c r="M22">
+        <v>27</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23">
+        <v>0.7405857740585774</v>
+      </c>
+      <c r="L23">
+        <v>177</v>
+      </c>
+      <c r="M23">
+        <v>177</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24">
+        <v>0.7244897959183674</v>
+      </c>
+      <c r="L24">
+        <v>213</v>
+      </c>
+      <c r="M24">
+        <v>214</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25">
+        <v>0.7147058823529412</v>
+      </c>
+      <c r="L25">
+        <v>243</v>
+      </c>
+      <c r="M25">
+        <v>243</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26">
+        <v>0.7</v>
+      </c>
+      <c r="L26">
+        <v>28</v>
+      </c>
+      <c r="M26">
+        <v>28</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="L27">
+        <v>45</v>
+      </c>
+      <c r="M27">
+        <v>45</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28">
+        <v>0.6914893617021277</v>
+      </c>
+      <c r="L28">
+        <v>65</v>
+      </c>
+      <c r="M28">
+        <v>65</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M15">
-        <v>50</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="J16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16">
-        <v>0.8611111111111112</v>
-      </c>
-      <c r="L16">
-        <v>31</v>
-      </c>
-      <c r="M16">
-        <v>31</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="10:17">
-      <c r="J17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17">
-        <v>0.8536585365853658</v>
-      </c>
-      <c r="L17">
-        <v>70</v>
-      </c>
-      <c r="M17">
-        <v>70</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="10:17">
-      <c r="J18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K18">
-        <v>0.84375</v>
-      </c>
-      <c r="L18">
-        <v>135</v>
-      </c>
-      <c r="M18">
-        <v>135</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="10:17">
-      <c r="J19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19">
-        <v>0.8095238095238095</v>
-      </c>
-      <c r="L19">
+      <c r="K29">
+        <v>0.6741573033707865</v>
+      </c>
+      <c r="L29">
+        <v>60</v>
+      </c>
+      <c r="M29">
+        <v>60</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M19">
-        <v>51</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="10:17">
-      <c r="J20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K20">
-        <v>0.8</v>
-      </c>
-      <c r="L20">
-        <v>28</v>
-      </c>
-      <c r="M20">
-        <v>28</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="10:17">
-      <c r="J21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K21">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="L21">
-        <v>38</v>
-      </c>
-      <c r="M21">
-        <v>38</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="10:17">
-      <c r="J22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22">
-        <v>0.78</v>
-      </c>
-      <c r="L22">
-        <v>39</v>
-      </c>
-      <c r="M22">
-        <v>39</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="10:17">
-      <c r="J23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23">
-        <v>0.775</v>
-      </c>
-      <c r="L23">
-        <v>31</v>
-      </c>
-      <c r="M23">
-        <v>31</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="10:17">
-      <c r="J24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K24">
-        <v>0.7382352941176471</v>
-      </c>
-      <c r="L24">
-        <v>251</v>
-      </c>
-      <c r="M24">
-        <v>251</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="10:17">
-      <c r="J25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K25">
-        <v>0.7254237288135593</v>
-      </c>
-      <c r="L25">
-        <v>214</v>
-      </c>
-      <c r="M25">
-        <v>214</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="10:17">
-      <c r="J26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K26">
-        <v>0.7238493723849372</v>
-      </c>
-      <c r="L26">
-        <v>173</v>
-      </c>
-      <c r="M26">
-        <v>173</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="10:17">
-      <c r="J27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K27">
-        <v>0.6862745098039216</v>
-      </c>
-      <c r="L27">
-        <v>35</v>
-      </c>
-      <c r="M27">
-        <v>35</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="10:17">
-      <c r="J28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K28">
-        <v>0.6714285714285714</v>
-      </c>
-      <c r="L28">
-        <v>47</v>
-      </c>
-      <c r="M28">
-        <v>47</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
-      <c r="J29" s="1" t="s">
+      <c r="K30">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="L30">
         <v>46</v>
       </c>
-      <c r="K29">
-        <v>0.6595744680851063</v>
-      </c>
-      <c r="L29">
-        <v>62</v>
-      </c>
-      <c r="M29">
-        <v>62</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
-      <c r="J30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K30">
-        <v>0.6307692307692307</v>
-      </c>
-      <c r="L30">
-        <v>41</v>
-      </c>
       <c r="M30">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1586,44 +1694,44 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="10:17">
+    <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>0.5955056179775281</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L31">
+        <v>29</v>
+      </c>
+      <c r="M31">
+        <v>29</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M31">
-        <v>53</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
-      <c r="J32" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="K32">
-        <v>0.515625</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L32">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M32">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1635,21 +1743,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.5128205128205128</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L33">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1661,21 +1769,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>0.4520547945205479</v>
+        <v>0.40625</v>
       </c>
       <c r="L34">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1687,33 +1795,33 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.01006289308176101</v>
+        <v>0.01730648206419132</v>
       </c>
       <c r="L35">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="M35">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="N35">
-        <v>0.6</v>
+        <v>0.71</v>
       </c>
       <c r="O35">
-        <v>0.4</v>
+        <v>0.29</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>3148</v>
+        <v>3123</v>
       </c>
     </row>
   </sheetData>
